--- a/artfynd/A 52392-2025 artfynd.xlsx
+++ b/artfynd/A 52392-2025 artfynd.xlsx
@@ -810,7 +810,7 @@
         <v>131143927</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>131143928</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>131143907</v>
       </c>
       <c r="B5" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>131143921</v>
       </c>
       <c r="B6" t="n">
-        <v>92106</v>
+        <v>92107</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>131143906</v>
       </c>
       <c r="B7" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>131143942</v>
       </c>
       <c r="B8" t="n">
-        <v>92462</v>
+        <v>92463</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/artfynd/A 52392-2025 artfynd.xlsx
+++ b/artfynd/A 52392-2025 artfynd.xlsx
@@ -810,7 +810,7 @@
         <v>131143927</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>131143928</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>131143907</v>
       </c>
       <c r="B5" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>131143921</v>
       </c>
       <c r="B6" t="n">
-        <v>92107</v>
+        <v>92108</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>131143906</v>
       </c>
       <c r="B7" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>131143942</v>
       </c>
       <c r="B8" t="n">
-        <v>92463</v>
+        <v>92464</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
